--- a/CheckItApi/CheckItApi/wwwroot/Files/test.xlsx
+++ b/CheckItApi/CheckItApi/wwwroot/Files/test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="461">
   <si>
     <t>חינוך יב2 צדיקריו עופר (5854) - אלפון תלמידים</t>
   </si>
@@ -1365,15 +1365,6 @@
     <t>0508299292</t>
   </si>
   <si>
-    <t>ronit2shoham@yahoo.com</t>
-  </si>
-  <si>
-    <t>שוהם אמיר (אבא)</t>
-  </si>
-  <si>
-    <t>0505299469</t>
-  </si>
-  <si>
     <t>amirsho@zahav.net.il</t>
   </si>
   <si>
@@ -1411,6 +1402,9 @@
   </si>
   <si>
     <t>0542100121</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3626,8 +3620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5878,16 +5872,16 @@
         <v>446</v>
       </c>
       <c r="R36" s="105" t="s">
+        <v>460</v>
+      </c>
+      <c r="S36" s="105" t="s">
+        <v>460</v>
+      </c>
+      <c r="T36" s="105" t="s">
+        <v>460</v>
+      </c>
+      <c r="U36" s="105" t="s">
         <v>447</v>
-      </c>
-      <c r="S36" s="105" t="s">
-        <v>448</v>
-      </c>
-      <c r="T36" s="105" t="s">
-        <v>449</v>
-      </c>
-      <c r="U36" s="105" t="s">
-        <v>450</v>
       </c>
       <c r="V36" s="105" t="s">
         <v>39</v>
@@ -5895,13 +5889,13 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="106" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B37" s="106">
         <v>214268872</v>
       </c>
       <c r="C37" s="106" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D37" s="106" t="s">
         <v>181</v>
@@ -5916,10 +5910,10 @@
         <v>28</v>
       </c>
       <c r="H37" s="106" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I37" s="106" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J37" s="106" t="s">
         <v>31</v>
@@ -5927,28 +5921,28 @@
       <c r="K37" s="106"/>
       <c r="L37" s="106"/>
       <c r="M37" s="100" t="s">
+        <v>452</v>
+      </c>
+      <c r="N37" s="101" t="s">
+        <v>453</v>
+      </c>
+      <c r="O37" s="102" t="s">
+        <v>454</v>
+      </c>
+      <c r="P37" s="106" t="s">
         <v>455</v>
       </c>
-      <c r="N37" s="101" t="s">
+      <c r="Q37" s="106" t="s">
         <v>456</v>
       </c>
-      <c r="O37" s="102" t="s">
+      <c r="R37" s="106" t="s">
         <v>457</v>
       </c>
-      <c r="P37" s="106" t="s">
+      <c r="S37" s="106" t="s">
         <v>458</v>
       </c>
-      <c r="Q37" s="106" t="s">
+      <c r="T37" s="106" t="s">
         <v>459</v>
-      </c>
-      <c r="R37" s="106" t="s">
-        <v>460</v>
-      </c>
-      <c r="S37" s="106" t="s">
-        <v>461</v>
-      </c>
-      <c r="T37" s="106" t="s">
-        <v>462</v>
       </c>
       <c r="U37" s="106"/>
       <c r="V37" s="106" t="s">
